--- a/src/main/resources/data/Data.xlsx
+++ b/src/main/resources/data/Data.xlsx
@@ -1392,7 +1392,7 @@
     <t xml:space="preserve"> Ubuntu 22.10 Kinetic Kudu</t>
   </si>
   <si>
-    <t>ansdrddessssa@gmail.com</t>
+    <t>cars@gmail.com</t>
   </si>
 </sst>
 </file>
